--- a/results-data/analysis/random/analysis - random - small.xlsx
+++ b/results-data/analysis/random/analysis - random - small.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Documents\Master\Advanced algorithms\moha\knapsackProblem\results-data\random\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Documents\Master\Advanced algorithms\moha\knapsackProblem\results-data\analysis\random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AF8CF3-7A1C-45FF-8889-F5F798F920CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D745FA6A-87F0-42D6-9F68-83FFA0534272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,14 +217,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13101,9 +13101,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:K275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
@@ -13121,18 +13124,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="1"/>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -13242,56 +13245,56 @@
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="1"/>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
@@ -13396,56 +13399,56 @@
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
       <c r="F62" s="1"/>
-      <c r="I62" s="18" t="s">
+      <c r="I62" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
@@ -13550,56 +13553,56 @@
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="16"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="16"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
       <c r="F93" s="1"/>
-      <c r="I93" s="18" t="s">
+      <c r="I93" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
@@ -13704,56 +13707,56 @@
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="16"/>
-      <c r="J118" s="16"/>
-      <c r="K118" s="16"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="18"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B119" s="16"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
-      <c r="J119" s="16"/>
-      <c r="K119" s="16"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="18"/>
+      <c r="K119" s="18"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B120" s="16"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="16"/>
-      <c r="J120" s="16"/>
-      <c r="K120" s="16"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="18"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="18"/>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B122" s="17" t="s">
+      <c r="B122" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
       <c r="F122" s="1"/>
-      <c r="I122" s="18" t="s">
+      <c r="I122" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B123" s="3" t="s">
@@ -13858,56 +13861,56 @@
       </c>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B148" s="16" t="s">
+      <c r="B148" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C148" s="16"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="16"/>
-      <c r="F148" s="16"/>
-      <c r="G148" s="16"/>
-      <c r="H148" s="16"/>
-      <c r="I148" s="16"/>
-      <c r="J148" s="16"/>
-      <c r="K148" s="16"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="18"/>
+      <c r="E148" s="18"/>
+      <c r="F148" s="18"/>
+      <c r="G148" s="18"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="18"/>
+      <c r="J148" s="18"/>
+      <c r="K148" s="18"/>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B149" s="16"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="16"/>
-      <c r="F149" s="16"/>
-      <c r="G149" s="16"/>
-      <c r="H149" s="16"/>
-      <c r="I149" s="16"/>
-      <c r="J149" s="16"/>
-      <c r="K149" s="16"/>
+      <c r="B149" s="18"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="18"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="18"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="18"/>
+      <c r="J149" s="18"/>
+      <c r="K149" s="18"/>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B150" s="16"/>
-      <c r="C150" s="16"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="16"/>
-      <c r="F150" s="16"/>
-      <c r="G150" s="16"/>
-      <c r="H150" s="16"/>
-      <c r="I150" s="16"/>
-      <c r="J150" s="16"/>
-      <c r="K150" s="16"/>
+      <c r="B150" s="18"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="18"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
+      <c r="J150" s="18"/>
+      <c r="K150" s="18"/>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B152" s="17" t="s">
+      <c r="B152" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
-      <c r="E152" s="17"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="16"/>
       <c r="F152" s="1"/>
-      <c r="I152" s="18" t="s">
+      <c r="I152" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J152" s="18"/>
-      <c r="K152" s="18"/>
+      <c r="J152" s="17"/>
+      <c r="K152" s="17"/>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B153" s="3" t="s">
@@ -14012,56 +14015,56 @@
       </c>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B177" s="16" t="s">
+      <c r="B177" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C177" s="16"/>
-      <c r="D177" s="16"/>
-      <c r="E177" s="16"/>
-      <c r="F177" s="16"/>
-      <c r="G177" s="16"/>
-      <c r="H177" s="16"/>
-      <c r="I177" s="16"/>
-      <c r="J177" s="16"/>
-      <c r="K177" s="16"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="18"/>
+      <c r="E177" s="18"/>
+      <c r="F177" s="18"/>
+      <c r="G177" s="18"/>
+      <c r="H177" s="18"/>
+      <c r="I177" s="18"/>
+      <c r="J177" s="18"/>
+      <c r="K177" s="18"/>
     </row>
     <row r="178" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B178" s="16"/>
-      <c r="C178" s="16"/>
-      <c r="D178" s="16"/>
-      <c r="E178" s="16"/>
-      <c r="F178" s="16"/>
-      <c r="G178" s="16"/>
-      <c r="H178" s="16"/>
-      <c r="I178" s="16"/>
-      <c r="J178" s="16"/>
-      <c r="K178" s="16"/>
+      <c r="B178" s="18"/>
+      <c r="C178" s="18"/>
+      <c r="D178" s="18"/>
+      <c r="E178" s="18"/>
+      <c r="F178" s="18"/>
+      <c r="G178" s="18"/>
+      <c r="H178" s="18"/>
+      <c r="I178" s="18"/>
+      <c r="J178" s="18"/>
+      <c r="K178" s="18"/>
     </row>
     <row r="179" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B179" s="16"/>
-      <c r="C179" s="16"/>
-      <c r="D179" s="16"/>
-      <c r="E179" s="16"/>
-      <c r="F179" s="16"/>
-      <c r="G179" s="16"/>
-      <c r="H179" s="16"/>
-      <c r="I179" s="16"/>
-      <c r="J179" s="16"/>
-      <c r="K179" s="16"/>
+      <c r="B179" s="18"/>
+      <c r="C179" s="18"/>
+      <c r="D179" s="18"/>
+      <c r="E179" s="18"/>
+      <c r="F179" s="18"/>
+      <c r="G179" s="18"/>
+      <c r="H179" s="18"/>
+      <c r="I179" s="18"/>
+      <c r="J179" s="18"/>
+      <c r="K179" s="18"/>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B181" s="17" t="s">
+      <c r="B181" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C181" s="17"/>
-      <c r="D181" s="17"/>
-      <c r="E181" s="17"/>
+      <c r="C181" s="16"/>
+      <c r="D181" s="16"/>
+      <c r="E181" s="16"/>
       <c r="F181" s="1"/>
-      <c r="I181" s="18" t="s">
+      <c r="I181" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J181" s="18"/>
-      <c r="K181" s="18"/>
+      <c r="J181" s="17"/>
+      <c r="K181" s="17"/>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B182" s="3" t="s">
@@ -14166,56 +14169,56 @@
       </c>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B206" s="16" t="s">
+      <c r="B206" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C206" s="16"/>
-      <c r="D206" s="16"/>
-      <c r="E206" s="16"/>
-      <c r="F206" s="16"/>
-      <c r="G206" s="16"/>
-      <c r="H206" s="16"/>
-      <c r="I206" s="16"/>
-      <c r="J206" s="16"/>
-      <c r="K206" s="16"/>
+      <c r="C206" s="18"/>
+      <c r="D206" s="18"/>
+      <c r="E206" s="18"/>
+      <c r="F206" s="18"/>
+      <c r="G206" s="18"/>
+      <c r="H206" s="18"/>
+      <c r="I206" s="18"/>
+      <c r="J206" s="18"/>
+      <c r="K206" s="18"/>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B207" s="16"/>
-      <c r="C207" s="16"/>
-      <c r="D207" s="16"/>
-      <c r="E207" s="16"/>
-      <c r="F207" s="16"/>
-      <c r="G207" s="16"/>
-      <c r="H207" s="16"/>
-      <c r="I207" s="16"/>
-      <c r="J207" s="16"/>
-      <c r="K207" s="16"/>
+      <c r="B207" s="18"/>
+      <c r="C207" s="18"/>
+      <c r="D207" s="18"/>
+      <c r="E207" s="18"/>
+      <c r="F207" s="18"/>
+      <c r="G207" s="18"/>
+      <c r="H207" s="18"/>
+      <c r="I207" s="18"/>
+      <c r="J207" s="18"/>
+      <c r="K207" s="18"/>
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B208" s="16"/>
-      <c r="C208" s="16"/>
-      <c r="D208" s="16"/>
-      <c r="E208" s="16"/>
-      <c r="F208" s="16"/>
-      <c r="G208" s="16"/>
-      <c r="H208" s="16"/>
-      <c r="I208" s="16"/>
-      <c r="J208" s="16"/>
-      <c r="K208" s="16"/>
+      <c r="B208" s="18"/>
+      <c r="C208" s="18"/>
+      <c r="D208" s="18"/>
+      <c r="E208" s="18"/>
+      <c r="F208" s="18"/>
+      <c r="G208" s="18"/>
+      <c r="H208" s="18"/>
+      <c r="I208" s="18"/>
+      <c r="J208" s="18"/>
+      <c r="K208" s="18"/>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B210" s="17" t="s">
+      <c r="B210" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C210" s="17"/>
-      <c r="D210" s="17"/>
-      <c r="E210" s="17"/>
+      <c r="C210" s="16"/>
+      <c r="D210" s="16"/>
+      <c r="E210" s="16"/>
       <c r="F210" s="1"/>
-      <c r="I210" s="18" t="s">
+      <c r="I210" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J210" s="18"/>
-      <c r="K210" s="18"/>
+      <c r="J210" s="17"/>
+      <c r="K210" s="17"/>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B211" s="3" t="s">
@@ -14320,56 +14323,56 @@
       </c>
     </row>
     <row r="236" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B236" s="16" t="s">
+      <c r="B236" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C236" s="16"/>
-      <c r="D236" s="16"/>
-      <c r="E236" s="16"/>
-      <c r="F236" s="16"/>
-      <c r="G236" s="16"/>
-      <c r="H236" s="16"/>
-      <c r="I236" s="16"/>
-      <c r="J236" s="16"/>
-      <c r="K236" s="16"/>
+      <c r="C236" s="18"/>
+      <c r="D236" s="18"/>
+      <c r="E236" s="18"/>
+      <c r="F236" s="18"/>
+      <c r="G236" s="18"/>
+      <c r="H236" s="18"/>
+      <c r="I236" s="18"/>
+      <c r="J236" s="18"/>
+      <c r="K236" s="18"/>
     </row>
     <row r="237" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B237" s="16"/>
-      <c r="C237" s="16"/>
-      <c r="D237" s="16"/>
-      <c r="E237" s="16"/>
-      <c r="F237" s="16"/>
-      <c r="G237" s="16"/>
-      <c r="H237" s="16"/>
-      <c r="I237" s="16"/>
-      <c r="J237" s="16"/>
-      <c r="K237" s="16"/>
+      <c r="B237" s="18"/>
+      <c r="C237" s="18"/>
+      <c r="D237" s="18"/>
+      <c r="E237" s="18"/>
+      <c r="F237" s="18"/>
+      <c r="G237" s="18"/>
+      <c r="H237" s="18"/>
+      <c r="I237" s="18"/>
+      <c r="J237" s="18"/>
+      <c r="K237" s="18"/>
     </row>
     <row r="238" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B238" s="16"/>
-      <c r="C238" s="16"/>
-      <c r="D238" s="16"/>
-      <c r="E238" s="16"/>
-      <c r="F238" s="16"/>
-      <c r="G238" s="16"/>
-      <c r="H238" s="16"/>
-      <c r="I238" s="16"/>
-      <c r="J238" s="16"/>
-      <c r="K238" s="16"/>
+      <c r="B238" s="18"/>
+      <c r="C238" s="18"/>
+      <c r="D238" s="18"/>
+      <c r="E238" s="18"/>
+      <c r="F238" s="18"/>
+      <c r="G238" s="18"/>
+      <c r="H238" s="18"/>
+      <c r="I238" s="18"/>
+      <c r="J238" s="18"/>
+      <c r="K238" s="18"/>
     </row>
     <row r="240" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B240" s="17" t="s">
+      <c r="B240" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C240" s="17"/>
-      <c r="D240" s="17"/>
-      <c r="E240" s="17"/>
+      <c r="C240" s="16"/>
+      <c r="D240" s="16"/>
+      <c r="E240" s="16"/>
       <c r="F240" s="1"/>
-      <c r="I240" s="18" t="s">
+      <c r="I240" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J240" s="18"/>
-      <c r="K240" s="18"/>
+      <c r="J240" s="17"/>
+      <c r="K240" s="17"/>
     </row>
     <row r="241" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B241" s="3" t="s">
@@ -14474,56 +14477,56 @@
       </c>
     </row>
     <row r="267" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B267" s="16" t="s">
+      <c r="B267" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C267" s="16"/>
-      <c r="D267" s="16"/>
-      <c r="E267" s="16"/>
-      <c r="F267" s="16"/>
-      <c r="G267" s="16"/>
-      <c r="H267" s="16"/>
-      <c r="I267" s="16"/>
-      <c r="J267" s="16"/>
-      <c r="K267" s="16"/>
+      <c r="C267" s="18"/>
+      <c r="D267" s="18"/>
+      <c r="E267" s="18"/>
+      <c r="F267" s="18"/>
+      <c r="G267" s="18"/>
+      <c r="H267" s="18"/>
+      <c r="I267" s="18"/>
+      <c r="J267" s="18"/>
+      <c r="K267" s="18"/>
     </row>
     <row r="268" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B268" s="16"/>
-      <c r="C268" s="16"/>
-      <c r="D268" s="16"/>
-      <c r="E268" s="16"/>
-      <c r="F268" s="16"/>
-      <c r="G268" s="16"/>
-      <c r="H268" s="16"/>
-      <c r="I268" s="16"/>
-      <c r="J268" s="16"/>
-      <c r="K268" s="16"/>
+      <c r="B268" s="18"/>
+      <c r="C268" s="18"/>
+      <c r="D268" s="18"/>
+      <c r="E268" s="18"/>
+      <c r="F268" s="18"/>
+      <c r="G268" s="18"/>
+      <c r="H268" s="18"/>
+      <c r="I268" s="18"/>
+      <c r="J268" s="18"/>
+      <c r="K268" s="18"/>
     </row>
     <row r="269" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B269" s="16"/>
-      <c r="C269" s="16"/>
-      <c r="D269" s="16"/>
-      <c r="E269" s="16"/>
-      <c r="F269" s="16"/>
-      <c r="G269" s="16"/>
-      <c r="H269" s="16"/>
-      <c r="I269" s="16"/>
-      <c r="J269" s="16"/>
-      <c r="K269" s="16"/>
+      <c r="B269" s="18"/>
+      <c r="C269" s="18"/>
+      <c r="D269" s="18"/>
+      <c r="E269" s="18"/>
+      <c r="F269" s="18"/>
+      <c r="G269" s="18"/>
+      <c r="H269" s="18"/>
+      <c r="I269" s="18"/>
+      <c r="J269" s="18"/>
+      <c r="K269" s="18"/>
     </row>
     <row r="271" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B271" s="17" t="s">
+      <c r="B271" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C271" s="17"/>
-      <c r="D271" s="17"/>
-      <c r="E271" s="17"/>
+      <c r="C271" s="16"/>
+      <c r="D271" s="16"/>
+      <c r="E271" s="16"/>
       <c r="F271" s="1"/>
-      <c r="I271" s="18" t="s">
+      <c r="I271" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J271" s="18"/>
-      <c r="K271" s="18"/>
+      <c r="J271" s="17"/>
+      <c r="K271" s="17"/>
     </row>
     <row r="272" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B272" s="3" t="s">
@@ -14629,39 +14632,39 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B28:K30"/>
+    <mergeCell ref="B236:K238"/>
+    <mergeCell ref="B240:E240"/>
+    <mergeCell ref="I240:K240"/>
+    <mergeCell ref="B267:K269"/>
+    <mergeCell ref="B271:E271"/>
+    <mergeCell ref="I271:K271"/>
+    <mergeCell ref="B177:K179"/>
+    <mergeCell ref="B181:E181"/>
+    <mergeCell ref="I181:K181"/>
+    <mergeCell ref="B206:K208"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="I210:K210"/>
+    <mergeCell ref="B118:K120"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="I122:K122"/>
+    <mergeCell ref="B148:K150"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="I152:K152"/>
     <mergeCell ref="B58:K60"/>
     <mergeCell ref="B62:E62"/>
     <mergeCell ref="I62:K62"/>
     <mergeCell ref="B89:K91"/>
     <mergeCell ref="B93:E93"/>
     <mergeCell ref="I93:K93"/>
-    <mergeCell ref="B118:K120"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="I122:K122"/>
-    <mergeCell ref="B148:K150"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="I152:K152"/>
-    <mergeCell ref="B177:K179"/>
-    <mergeCell ref="B181:E181"/>
-    <mergeCell ref="I181:K181"/>
-    <mergeCell ref="B206:K208"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="I210:K210"/>
-    <mergeCell ref="B236:K238"/>
-    <mergeCell ref="B240:E240"/>
-    <mergeCell ref="I240:K240"/>
-    <mergeCell ref="B267:K269"/>
-    <mergeCell ref="B271:E271"/>
-    <mergeCell ref="I271:K271"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B28:K30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="20">
     <tablePart r:id="rId3"/>
